--- a/DataTable/excels/Scene_场景表.xlsx
+++ b/DataTable/excels/Scene_场景表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Event_Server\Tools\transport_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Event_Server\DataTable\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>INT</t>
   </si>
@@ -214,13 +214,7 @@
     <t>name_id</t>
   </si>
   <si>
-    <t>主键id</t>
-  </si>
-  <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>活动id</t>
   </si>
   <si>
     <t>操作者</t>
@@ -568,6 +562,27 @@
   </si>
   <si>
     <t>默认出生地地图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不是镜像
+1可以是镜像</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ismirror</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图id也是场景id</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1080,13 +1095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1096,35 +1111,38 @@
     <col min="3" max="3" width="14.625" style="28" customWidth="1"/>
     <col min="4" max="4" width="23.375" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="28" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="26.875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="28"/>
+    <col min="6" max="7" width="10.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1132,82 +1150,92 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="D3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E4" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>107</v>
-      </c>
       <c r="G4" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="33">
         <v>2</v>
@@ -1218,52 +1246,61 @@
       <c r="G6" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="33"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1292,72 +1329,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="22">
         <v>42926</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="22">
         <v>42962</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="22">
         <v>42973</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="25">
         <v>42994</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1438,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
@@ -1465,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>1</v>
@@ -1555,323 +1592,323 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="M3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="V3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="W3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="L4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="M4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="T4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="U4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="V4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="W4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="J5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="L5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="M5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="S5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="T5" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="U5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="V5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="W5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="X5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="Y5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="Z5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="AA5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AB5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AD5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AF5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AG5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AH5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
@@ -1888,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
@@ -1995,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="13">
         <v>2</v>
@@ -2102,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="14">
         <v>3</v>
@@ -2209,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" s="17">
         <v>3</v>
@@ -2316,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="17">
         <v>3</v>
@@ -2423,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="17">
         <v>3</v>
